--- a/STAT.xlsx
+++ b/STAT.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3FE0312-3004-46C3-BB3A-A8A5B5398F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB79CF5A-68FC-462A-8C30-5537B81EA64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37A3EF94-5694-4464-AF68-EB1E34EEECDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$132</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -75,9 +78,6 @@
     <t>FANX99</t>
   </si>
   <si>
-    <t>MATH150;MATH151;MATH154;MATH157</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -87,9 +87,6 @@
     <t>RISK 201 - Interest Theory and Applications</t>
   </si>
   <si>
-    <t>FANX99;MATH152;MATH155;MATH158</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>RISK 301 - Long-Term Actuarial Mathematics I</t>
   </si>
   <si>
-    <t>RISK201;FANX99</t>
-  </si>
-  <si>
     <t>STAT285</t>
   </si>
   <si>
@@ -120,12 +114,6 @@
     <t>RISK 321 - Fundamentals of Short-Term Insurance</t>
   </si>
   <si>
-    <t>RISK101;RISK231;FANX99;STAT330</t>
-  </si>
-  <si>
-    <t>RISK231;STAT330</t>
-  </si>
-  <si>
     <t>RISK336</t>
   </si>
   <si>
@@ -144,18 +132,12 @@
     <t>RISK 340 - Financial Economics for Actuaries</t>
   </si>
   <si>
-    <t>FANX99;STAT285</t>
-  </si>
-  <si>
     <t>RISK360W</t>
   </si>
   <si>
     <t>RISK 360W - Actuarial Communication</t>
   </si>
   <si>
-    <t>RISK301;FALX99;FANX99</t>
-  </si>
-  <si>
     <t>RISK395</t>
   </si>
   <si>
@@ -168,18 +150,12 @@
     <t>RISK 401 - Long-Term Actuarial Mathematics II</t>
   </si>
   <si>
-    <t>RISK301;FANX99</t>
-  </si>
-  <si>
     <t>RISK421</t>
   </si>
   <si>
     <t>RISK 421 - Advanced Models for Short-Term Insurance</t>
   </si>
   <si>
-    <t>RISK321;STAT350</t>
-  </si>
-  <si>
     <t>STAT350</t>
   </si>
   <si>
@@ -189,9 +165,6 @@
     <t>RISK 422 - Short-Term Insurance Practice</t>
   </si>
   <si>
-    <t>RISK321;FANX99</t>
-  </si>
-  <si>
     <t>RISK436</t>
   </si>
   <si>
@@ -228,9 +201,6 @@
     <t>RISK 475 - Theory of Pension</t>
   </si>
   <si>
-    <t>RISK301;RISK401;FANX99</t>
-  </si>
-  <si>
     <t>RISK490</t>
   </si>
   <si>
@@ -318,24 +288,15 @@
     <t>STAT 240 - Introduction to Data Science</t>
   </si>
   <si>
-    <t>BUS232;CMPT102;CMPT120;CMPT125;CMPT128;CMPT129;CMPT130;ECON233;FANX99;STAT201;STAT203;STAT205;STAT270</t>
-  </si>
-  <si>
     <t>STAT260</t>
   </si>
   <si>
     <t>STAT 260 - Introductory R for Data Science</t>
   </si>
   <si>
-    <t>BUS232;ECON233;POL201;STAT201;STAT203;STAT205;STAT270</t>
-  </si>
-  <si>
     <t>STAT 270 - Introduction to Probability and Statistics</t>
   </si>
   <si>
-    <t>MATH152;MATH155;MATH158</t>
-  </si>
-  <si>
     <t>STAT271</t>
   </si>
   <si>
@@ -348,9 +309,6 @@
     <t>STAT 285 - Intermediate Probability and Statistics</t>
   </si>
   <si>
-    <t>FANX99;MATH152;MATH155;MATH158;STAT270</t>
-  </si>
-  <si>
     <t>STAT290</t>
   </si>
   <si>
@@ -363,18 +321,12 @@
     <t>STAT 300W - Statistics Communication</t>
   </si>
   <si>
-    <t>FALX99;STAT350</t>
-  </si>
-  <si>
     <t>STAT302</t>
   </si>
   <si>
     <t>STAT 302 - Analysis of Experimental and Observational Data</t>
   </si>
   <si>
-    <t>BUS232;ECON233;FANX99;STAT201;STAT203;STAT205;STAT270</t>
-  </si>
-  <si>
     <t>STAT305</t>
   </si>
   <si>
@@ -387,18 +339,12 @@
     <t>STAT 310 - Introduction to Data Science for the Social Sciences</t>
   </si>
   <si>
-    <t>BUS232;ECON233;FANX99;POL201;STAT201;STAT203;STAT205;STAT270</t>
-  </si>
-  <si>
     <t>STAT320</t>
   </si>
   <si>
     <t>STAT 320 - Introduction to Data Science for the Life Sciences</t>
   </si>
   <si>
-    <t>FANX99;STAT201;STAT203;STAT205;STAT270</t>
-  </si>
-  <si>
     <t>MBB343</t>
   </si>
   <si>
@@ -408,9 +354,6 @@
     <t>STAT 330 - Introduction to Mathematical Statistics</t>
   </si>
   <si>
-    <t>FANX99;MATH232;MATH240;MATH251;STAT285</t>
-  </si>
-  <si>
     <t>STAT336</t>
   </si>
   <si>
@@ -429,33 +372,21 @@
     <t>STAT 342 - Introduction to Statistical Computing and Exploratory Data Analysis - SAS</t>
   </si>
   <si>
-    <t>ECON333;STAT285;STAT302;STAT305</t>
-  </si>
-  <si>
     <t>STAT 350 - Linear Models in Applied Statistics</t>
   </si>
   <si>
-    <t>FANX99;MATH232;MATH240;MATH251;STAT260;STAT285</t>
-  </si>
-  <si>
     <t>STAT360</t>
   </si>
   <si>
     <t>STAT 360 - Advanced R for Data Science</t>
   </si>
   <si>
-    <t>STAT260;STAT302;STAT305;STAT350</t>
-  </si>
-  <si>
     <t>STAT380</t>
   </si>
   <si>
     <t>STAT 380 - Introduction to Stochastic Processes</t>
   </si>
   <si>
-    <t>FANX99;FANX99;MATH208W;MATH251;STAT285;STAT330</t>
-  </si>
-  <si>
     <t>STAT390</t>
   </si>
   <si>
@@ -468,18 +399,12 @@
     <t>STAT 403 - Intermediate Sampling and Experimental Design</t>
   </si>
   <si>
-    <t>ECON333;FANX99;STAT260;STAT302;STAT305;STAT350</t>
-  </si>
-  <si>
     <t>STAT410</t>
   </si>
   <si>
     <t>STAT 410 - Statistical Analysis of Sample Surveys</t>
   </si>
   <si>
-    <t>FANX99;STAT350</t>
-  </si>
-  <si>
     <t>STAT430</t>
   </si>
   <si>
@@ -510,27 +435,18 @@
     <t>STAT 440 - Learning from Big Data</t>
   </si>
   <si>
-    <t>CMPT225;STAT260;STAT350</t>
-  </si>
-  <si>
     <t>STAT445</t>
   </si>
   <si>
     <t>STAT 445 - Applied Multivariate Analysis</t>
   </si>
   <si>
-    <t>ECON333;FANX99;STAT260;STAT285;STAT302;STAT305</t>
-  </si>
-  <si>
     <t>STAT450</t>
   </si>
   <si>
     <t>STAT 450 - Statistical Theory</t>
   </si>
   <si>
-    <t>FANX99;STAT330</t>
-  </si>
-  <si>
     <t>STAT452</t>
   </si>
   <si>
@@ -543,9 +459,6 @@
     <t>STAT 460 - Bayesian Statistics</t>
   </si>
   <si>
-    <t>FANX99;STAT330;STAT350</t>
-  </si>
-  <si>
     <t>STAT475</t>
   </si>
   <si>
@@ -594,9 +507,6 @@
     <t>STAT 641 - Introduction to Statistical Computing and Exploratory Data Analysis - R</t>
   </si>
   <si>
-    <t>ECON333;STAT285;STAT302;STAT305;STAT604;STAT605</t>
-  </si>
-  <si>
     <t>STAT642</t>
   </si>
   <si>
@@ -609,9 +519,6 @@
     <t>STAT 645 - Applied Multivariate Analysis</t>
   </si>
   <si>
-    <t>ECON333;STAT302;STAT305;STAT350;STAT604;STAT605</t>
-  </si>
-  <si>
     <t>STAT652</t>
   </si>
   <si>
@@ -696,18 +603,12 @@
     <t>STAT 851 - Generalized Linear Models and Discrete Data Analysis</t>
   </si>
   <si>
-    <t>STAT830;STAT850</t>
-  </si>
-  <si>
     <t>STAT852</t>
   </si>
   <si>
     <t>STAT 852 - Modern Methods in Applied Statistics</t>
   </si>
   <si>
-    <t>STAT830;STAT853</t>
-  </si>
-  <si>
     <t>STAT853</t>
   </si>
   <si>
@@ -888,9 +789,6 @@
     <t>MATH 232 - Applied Linear Algebra</t>
   </si>
   <si>
-    <t>FANX99;MACM101;MATH150;MATH151;MATH154;MATH157</t>
-  </si>
-  <si>
     <t>MATH240</t>
   </si>
   <si>
@@ -906,9 +804,6 @@
     <t>MACM 101 - Discrete Mathematics I</t>
   </si>
   <si>
-    <t>FANX99;MATHX12;MATH100;MATH150;MATH151;MATH154;MATH157</t>
-  </si>
-  <si>
     <t>CMPT120</t>
   </si>
   <si>
@@ -921,9 +816,6 @@
     <t>CMPT 125 - Introduction to Computing Science and Programming II</t>
   </si>
   <si>
-    <t>CMPT120;CMPT130;FANX99</t>
-  </si>
-  <si>
     <t>CMPT130</t>
   </si>
   <si>
@@ -936,24 +828,15 @@
     <t>CMPT 135 - Introduction to Computer Programming II</t>
   </si>
   <si>
-    <t>CMPT130;FANX99</t>
-  </si>
-  <si>
     <t>CMPT 210 - Probability and Computing</t>
   </si>
   <si>
-    <t>CMPT125;CMPT135;MACM101;MATH152;MATH232;MATH240</t>
-  </si>
-  <si>
     <t>MBB</t>
   </si>
   <si>
     <t>MBB 343 - Data Science Laboratory for Molecular Biology and Biochemistry</t>
   </si>
   <si>
-    <t>FANX99;MBB222;STAT201;STAT203;STAT205;STAT270</t>
-  </si>
-  <si>
     <t>MBB222</t>
   </si>
   <si>
@@ -969,9 +852,6 @@
     <t>CHEM 281 - Organic Chemistry and Laboratory I</t>
   </si>
   <si>
-    <t>CHEM121;FANX99</t>
-  </si>
-  <si>
     <t>CHEM122</t>
   </si>
   <si>
@@ -981,18 +861,12 @@
     <t>CHEM 109 - Introduction to Chemistry for Health Careers</t>
   </si>
   <si>
-    <t>FANX99;MATHX12;MATH100</t>
-  </si>
-  <si>
     <t>CHEM110</t>
   </si>
   <si>
     <t>CHEM 110 - Introductory Chemistry</t>
   </si>
   <si>
-    <t>FANX99;MATHX12</t>
-  </si>
-  <si>
     <t>CHEM111</t>
   </si>
   <si>
@@ -1005,22 +879,151 @@
     <t>CHEM 120 - General Chemistry I</t>
   </si>
   <si>
-    <t>CHEMX12;CHEM110;CHEM111;FANX99</t>
-  </si>
-  <si>
     <t>CHEM121</t>
   </si>
   <si>
     <t>CHEM 121 - General Chemistry and Laboratory I</t>
   </si>
   <si>
-    <t>CHEMX12;CHEM109;CHEM111;FANX99</t>
-  </si>
-  <si>
     <t>CHEM 122 - General Chemistry II</t>
   </si>
   <si>
-    <t>CHEM120;CHEM121;FANX99</t>
+    <t>MATH150,MATH151,MATH154,MATH157</t>
+  </si>
+  <si>
+    <t>FANX99,MATH152,MATH155,MATH158</t>
+  </si>
+  <si>
+    <t>RISK201,FANX99</t>
+  </si>
+  <si>
+    <t>RISK101,RISK231,FANX99,STAT330</t>
+  </si>
+  <si>
+    <t>RISK231,STAT330</t>
+  </si>
+  <si>
+    <t>FANX99,STAT285</t>
+  </si>
+  <si>
+    <t>RISK301,FALX99,FANX99</t>
+  </si>
+  <si>
+    <t>RISK301,FANX99</t>
+  </si>
+  <si>
+    <t>RISK321,STAT350</t>
+  </si>
+  <si>
+    <t>RISK321,FANX99</t>
+  </si>
+  <si>
+    <t>RISK301,RISK401,FANX99</t>
+  </si>
+  <si>
+    <t>BUS232,CMPT102,CMPT120,CMPT125,CMPT128,CMPT129,CMPT130,ECON233,FANX99,STAT201,STAT203,STAT205,STAT270</t>
+  </si>
+  <si>
+    <t>BUS232,ECON233,POL201,STAT201,STAT203,STAT205,STAT270</t>
+  </si>
+  <si>
+    <t>MATH152,MATH155,MATH158</t>
+  </si>
+  <si>
+    <t>FANX99,MATH152,MATH155,MATH158,STAT270</t>
+  </si>
+  <si>
+    <t>FALX99,STAT350</t>
+  </si>
+  <si>
+    <t>BUS232,ECON233,FANX99,STAT201,STAT203,STAT205,STAT270</t>
+  </si>
+  <si>
+    <t>BUS232,ECON233,FANX99,POL201,STAT201,STAT203,STAT205,STAT270</t>
+  </si>
+  <si>
+    <t>FANX99,STAT201,STAT203,STAT205,STAT270</t>
+  </si>
+  <si>
+    <t>FANX99,MATH232,MATH240,MATH251,STAT285</t>
+  </si>
+  <si>
+    <t>ECON333,STAT285,STAT302,STAT305</t>
+  </si>
+  <si>
+    <t>FANX99,MATH232,MATH240,MATH251,STAT260,STAT285</t>
+  </si>
+  <si>
+    <t>STAT260,STAT302,STAT305,STAT350</t>
+  </si>
+  <si>
+    <t>FANX99,FANX99,MATH208W,MATH251,STAT285,STAT330</t>
+  </si>
+  <si>
+    <t>ECON333,FANX99,STAT260,STAT302,STAT305,STAT350</t>
+  </si>
+  <si>
+    <t>FANX99,STAT350</t>
+  </si>
+  <si>
+    <t>CMPT225,STAT260,STAT350</t>
+  </si>
+  <si>
+    <t>ECON333,FANX99,STAT260,STAT285,STAT302,STAT305</t>
+  </si>
+  <si>
+    <t>FANX99,STAT330</t>
+  </si>
+  <si>
+    <t>FANX99,STAT330,STAT350</t>
+  </si>
+  <si>
+    <t>ECON333,STAT285,STAT302,STAT305,STAT604,STAT605</t>
+  </si>
+  <si>
+    <t>ECON333,STAT302,STAT305,STAT350,STAT604,STAT605</t>
+  </si>
+  <si>
+    <t>STAT830,STAT850</t>
+  </si>
+  <si>
+    <t>STAT830,STAT853</t>
+  </si>
+  <si>
+    <t>FANX99,MACM101,MATH150,MATH151,MATH154,MATH157</t>
+  </si>
+  <si>
+    <t>FANX99,MATHX12,MATH100,MATH150,MATH151,MATH154,MATH157</t>
+  </si>
+  <si>
+    <t>CMPT120,CMPT130,FANX99</t>
+  </si>
+  <si>
+    <t>CMPT130,FANX99</t>
+  </si>
+  <si>
+    <t>CMPT125,CMPT135,MACM101,MATH152,MATH232,MATH240</t>
+  </si>
+  <si>
+    <t>FANX99,MBB222,STAT201,STAT203,STAT205,STAT270</t>
+  </si>
+  <si>
+    <t>CHEM121,FANX99</t>
+  </si>
+  <si>
+    <t>FANX99,MATHX12,MATH100</t>
+  </si>
+  <si>
+    <t>FANX99,MATHX12</t>
+  </si>
+  <si>
+    <t>CHEMX12,CHEM110,CHEM111,FANX99</t>
+  </si>
+  <si>
+    <t>CHEMX12,CHEM109,CHEM111,FANX99</t>
+  </si>
+  <si>
+    <t>CHEM120,CHEM121,FANX99</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1416,7 @@
   <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H132"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1461,10 +1464,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1475,19 +1478,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1498,16 +1501,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1518,19 +1521,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1541,16 +1544,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1561,16 +1564,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1581,16 +1584,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1601,19 +1604,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1624,16 +1627,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1644,16 +1647,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1664,19 +1667,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1687,16 +1690,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>291</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1707,16 +1710,16 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1727,16 +1730,16 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1747,16 +1750,16 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1767,16 +1770,16 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1787,16 +1790,16 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1807,16 +1810,16 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1827,16 +1830,16 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1847,16 +1850,16 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1867,16 +1870,16 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1887,16 +1890,16 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1907,16 +1910,16 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1927,16 +1930,16 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1947,16 +1950,16 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1967,16 +1970,16 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1987,16 +1990,16 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2007,16 +2010,16 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2027,16 +2030,16 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2047,16 +2050,16 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2067,16 +2070,16 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2087,16 +2090,16 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2107,16 +2110,16 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2127,19 +2130,19 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2150,19 +2153,19 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
         <v>85</v>
       </c>
-      <c r="D36" t="s">
-        <v>98</v>
-      </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2173,16 +2176,16 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2193,19 +2196,19 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2216,16 +2219,16 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2236,19 +2239,19 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2259,16 +2262,16 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2279,16 +2282,16 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>299</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2299,16 +2302,16 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2319,16 +2322,16 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2339,19 +2342,19 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2362,16 +2365,16 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2382,16 +2385,16 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2402,19 +2405,19 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2425,19 +2428,19 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2448,16 +2451,16 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2468,16 +2471,16 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2488,16 +2491,16 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2508,16 +2511,16 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2528,16 +2531,16 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2548,16 +2551,16 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2568,16 +2571,16 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2588,16 +2591,16 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2608,16 +2611,16 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2628,16 +2631,16 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2648,16 +2651,16 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2668,16 +2671,16 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2688,16 +2691,16 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2708,16 +2711,16 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2728,16 +2731,16 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2748,16 +2751,16 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2768,16 +2771,16 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -2788,16 +2791,16 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -2808,16 +2811,16 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2828,16 +2831,16 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2848,16 +2851,16 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -2868,16 +2871,16 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -2888,16 +2891,16 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -2908,16 +2911,16 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -2928,16 +2931,16 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2948,16 +2951,16 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -2968,16 +2971,16 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -2988,16 +2991,16 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -3008,16 +3011,16 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -3028,16 +3031,16 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -3048,16 +3051,16 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E80" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -3068,16 +3071,16 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -3088,16 +3091,16 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="E82" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -3108,16 +3111,16 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="E83" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -3128,16 +3131,16 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -3148,16 +3151,16 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -3168,16 +3171,16 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -3188,16 +3191,16 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="E87" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -3208,16 +3211,16 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -3228,16 +3231,16 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -3248,16 +3251,16 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="E90" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -3268,16 +3271,16 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -3288,16 +3291,16 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E92" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -3308,16 +3311,16 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -3328,16 +3331,16 @@
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D94" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -3348,16 +3351,16 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -3368,16 +3371,16 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -3388,16 +3391,16 @@
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -3408,16 +3411,16 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -3428,16 +3431,16 @@
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D99" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -3448,16 +3451,16 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -3468,16 +3471,16 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -3488,16 +3491,16 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -3508,16 +3511,16 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="D103" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -3525,19 +3528,19 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D104" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -3545,19 +3548,19 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="D105" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -3565,19 +3568,19 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="D106" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="E106" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -3585,19 +3588,19 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -3605,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="D108" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -3625,19 +3628,19 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="E109" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -3645,19 +3648,19 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D110" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="E110" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -3665,22 +3668,22 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="D111" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E111" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -3688,19 +3691,19 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C112" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D112" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="E112" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -3708,19 +3711,19 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C113" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="E113" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -3728,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C114" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="E114" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -3748,19 +3751,19 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C115" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="D115" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -3768,22 +3771,22 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C116" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="E116" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -3791,19 +3794,19 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C117" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="D117" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E117" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -3811,19 +3814,19 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D118" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="E118" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -3831,19 +3834,19 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C119" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D119" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -3851,22 +3854,22 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="D120" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="E120" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -3874,19 +3877,19 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C121" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="D121" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="E121" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -3894,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="D122" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="E122" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -3914,19 +3917,19 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="E123" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -3934,19 +3937,19 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D124" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="E124" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F124" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -3954,19 +3957,19 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C125" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="D125" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="E125" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="F125" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -3974,19 +3977,19 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="D126" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="E126" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F126" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -3994,19 +3997,19 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="E127" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F127" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -4014,19 +4017,19 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="D128" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="E128" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F128" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -4034,19 +4037,19 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C129" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="D129" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F129" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -4054,19 +4057,19 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C130" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="D130" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="E130" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -4074,19 +4077,19 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D131" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="E131" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -4094,22 +4097,23 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C132" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="D132" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="E132" t="s">
         <v>328</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H132" xr:uid="{CCB45847-0D98-46DC-BBD0-085CFFF51969}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/STAT.xlsx
+++ b/STAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB79CF5A-68FC-462A-8C30-5537B81EA64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1573D-0339-4184-90D9-BAB36ECFD40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37A3EF94-5694-4464-AF68-EB1E34EEECDA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="348">
   <si>
     <t>Type</t>
   </si>
@@ -1024,13 +1024,70 @@
   </si>
   <si>
     <t>CHEM120,CHEM121,FANX99</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>ECON</t>
+  </si>
+  <si>
+    <t>BUS232</t>
+  </si>
+  <si>
+    <t>BUS 232 - Business Statistics</t>
+  </si>
+  <si>
+    <t>ECON233</t>
+  </si>
+  <si>
+    <t>ECON 233 - Introduction to Economic Data and Statistics</t>
+  </si>
+  <si>
+    <t>ECON333</t>
+  </si>
+  <si>
+    <t>ECON 333 - Statistical Analysis of Economic Data</t>
+  </si>
+  <si>
+    <t>ECON103</t>
+  </si>
+  <si>
+    <t>ECON105</t>
+  </si>
+  <si>
+    <t>ECON113</t>
+  </si>
+  <si>
+    <t>ECON115</t>
+  </si>
+  <si>
+    <t>ECON 103 - Principles of Microeconomics</t>
+  </si>
+  <si>
+    <t>ECON 105 - Principles of Macroeconomics</t>
+  </si>
+  <si>
+    <t>ECON 113 - Introduction to Microeconomics</t>
+  </si>
+  <si>
+    <t>ECON 115 - Introduction to Macroeconomics</t>
+  </si>
+  <si>
+    <t>FANX100</t>
+  </si>
+  <si>
+    <t>FANX101</t>
+  </si>
+  <si>
+    <t>BUS232,ECON103,ECON105,ECON113,ECON115,ECON233,FANX99,MATH150,MATH151,MATH154,MATH157,STAT270</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +1100,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1091,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1099,6 +1162,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,13 +1485,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB45847-0D98-46DC-BBD0-085CFFF51969}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="37.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4112,8 +4188,149 @@
         <v>16</v>
       </c>
     </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>329</v>
+      </c>
+      <c r="C133" t="s">
+        <v>331</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134" t="s">
+        <v>333</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" t="s">
+        <v>335</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C136" t="s">
+        <v>337</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C137" t="s">
+        <v>338</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C138" t="s">
+        <v>339</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H132" xr:uid="{CCB45847-0D98-46DC-BBD0-085CFFF51969}"/>
+  <autoFilter ref="A1:H134" xr:uid="{CCB45847-0D98-46DC-BBD0-085CFFF51969}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/STAT.xlsx
+++ b/STAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1573D-0339-4184-90D9-BAB36ECFD40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93467A-E48D-4266-8102-D31A70227F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37A3EF94-5694-4464-AF68-EB1E34EEECDA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="366">
   <si>
     <t>Type</t>
   </si>
@@ -1074,13 +1074,67 @@
     <t>ECON 115 - Introduction to Macroeconomics</t>
   </si>
   <si>
-    <t>FANX100</t>
-  </si>
-  <si>
-    <t>FANX101</t>
-  </si>
-  <si>
     <t>BUS232,ECON103,ECON105,ECON113,ECON115,ECON233,FANX99,MATH150,MATH151,MATH154,MATH157,STAT270</t>
+  </si>
+  <si>
+    <t>CMPT102</t>
+  </si>
+  <si>
+    <t>CMPT128</t>
+  </si>
+  <si>
+    <t>CMPT129</t>
+  </si>
+  <si>
+    <t>CMPT225</t>
+  </si>
+  <si>
+    <t>CMPT 102 - Introduction to Scientific Computer Programming</t>
+  </si>
+  <si>
+    <t>CMPT 128 - Introduction to Computing Science and Programming for Engineers</t>
+  </si>
+  <si>
+    <t>CMPT 129 - Introduction to Computing Science and Programming for Mathematics and Statistics</t>
+  </si>
+  <si>
+    <t>CMPT 225 - Data Structures and Programming</t>
+  </si>
+  <si>
+    <t>CMPT102,CMPT120,FANX99</t>
+  </si>
+  <si>
+    <t>MATH208W</t>
+  </si>
+  <si>
+    <t>POL201</t>
+  </si>
+  <si>
+    <t>MATH251</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>MATH 208W - Introduction to Operations Research</t>
+  </si>
+  <si>
+    <t>POL 201 - Introductory Quantitative Methods in Political Science</t>
+  </si>
+  <si>
+    <t>POL200W</t>
+  </si>
+  <si>
+    <t>POL 200W - Investigating Politics: An Introduction to Political Analysis</t>
+  </si>
+  <si>
+    <t>MATH 251 - Calculus III</t>
+  </si>
+  <si>
+    <t>FALX99,FANX99,MATH150,MATH151,MATH154,MATH157</t>
+  </si>
+  <si>
+    <t>FANX99,FANX99,MATH154,MATH155</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1162,6 +1216,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1485,16 +1560,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB45847-0D98-46DC-BBD0-085CFFF51969}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="37.36328125" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" customWidth="1"/>
+    <col min="6" max="6" width="33.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1528,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1542,31 +1619,25 @@
       <c r="F2" t="s">
         <v>283</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1574,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1594,22 +1665,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1617,19 +1685,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1637,16 +1705,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1657,16 +1725,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1677,22 +1745,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1700,19 +1765,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1720,16 +1785,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1740,16 +1805,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1763,19 +1828,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1783,16 +1848,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1803,16 +1868,16 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1823,16 +1888,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1843,16 +1908,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1863,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>349</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1883,16 +1948,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="E19" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -1903,19 +1968,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>337</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1923,16 +1988,16 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>342</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1943,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>343</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -1963,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>344</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1983,19 +2048,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>334</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2003,16 +2068,16 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -2023,13 +2088,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -2043,13 +2108,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -2063,16 +2128,16 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -2083,16 +2148,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -2103,16 +2168,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -2123,16 +2188,16 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -2143,16 +2208,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -2163,19 +2228,22 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2183,16 +2251,16 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -2203,22 +2271,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="E35" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2226,22 +2291,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2249,16 +2311,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -2269,22 +2331,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>355</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>359</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2292,19 +2351,22 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>317</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2312,22 +2374,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2335,16 +2394,16 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="E41" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -2355,19 +2414,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="E42" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2375,19 +2434,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2395,19 +2454,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>362</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2415,22 +2474,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="E45" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2441,10 +2497,10 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
         <v>16</v>
@@ -2461,16 +2517,19 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>283</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2481,13 +2540,13 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -2504,19 +2563,16 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2527,16 +2583,19 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2547,16 +2606,16 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2567,10 +2626,10 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -2587,13 +2646,13 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2607,16 +2666,19 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2627,13 +2689,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2647,13 +2709,13 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2667,16 +2729,19 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2687,16 +2752,16 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2707,13 +2772,13 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -2727,13 +2792,13 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2747,13 +2812,13 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -2767,13 +2832,13 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -2787,13 +2852,13 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
@@ -2807,1305 +2872,1317 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>294</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" t="s">
+        <v>295</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>284</v>
+      </c>
+      <c r="F80" t="s">
+        <v>296</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s">
+        <v>297</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" t="s">
+        <v>299</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" t="s">
+        <v>299</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" t="s">
+        <v>300</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" t="s">
+        <v>302</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" t="s">
+        <v>303</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" t="s">
+        <v>304</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" t="s">
+        <v>305</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" t="s">
+        <v>306</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" t="s">
+        <v>307</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" t="s">
+        <v>308</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" t="s">
+        <v>107</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" t="s">
+        <v>127</v>
+      </c>
+      <c r="E101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" t="s">
+        <v>131</v>
+      </c>
+      <c r="E103" t="s">
+        <v>309</v>
+      </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" t="s">
+        <v>310</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" t="s">
+        <v>311</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>136</v>
+      </c>
+      <c r="D106" t="s">
+        <v>137</v>
+      </c>
+      <c r="E106" t="s">
+        <v>307</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" t="s">
+        <v>139</v>
+      </c>
+      <c r="E107" t="s">
+        <v>312</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
         <v>140</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D108" t="s">
         <v>141</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E108" t="s">
         <v>307</v>
       </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
         <v>142</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D109" t="s">
         <v>143</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E109" t="s">
         <v>310</v>
       </c>
-      <c r="F65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
         <v>144</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D110" t="s">
         <v>145</v>
       </c>
-      <c r="E66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
         <v>146</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D111" t="s">
         <v>147</v>
       </c>
-      <c r="E67" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
         <v>148</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D112" t="s">
         <v>149</v>
       </c>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
         <v>150</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D113" t="s">
         <v>151</v>
       </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
         <v>152</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D114" t="s">
         <v>153</v>
       </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
         <v>154</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D115" t="s">
         <v>155</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E115" t="s">
         <v>313</v>
       </c>
-      <c r="F71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
         <v>156</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D116" t="s">
         <v>157</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E116" t="s">
         <v>313</v>
       </c>
-      <c r="F72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
         <v>158</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D117" t="s">
         <v>159</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E117" t="s">
         <v>314</v>
       </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
         <v>160</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D118" t="s">
         <v>161</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E118" t="s">
         <v>314</v>
       </c>
-      <c r="F74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
         <v>162</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D119" t="s">
         <v>163</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E119" t="s">
         <v>314</v>
       </c>
-      <c r="F75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
         <v>164</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D120" t="s">
         <v>165</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E120" t="s">
         <v>314</v>
       </c>
-      <c r="F76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="F120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
         <v>166</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D121" t="s">
         <v>167</v>
       </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="E121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
         <v>168</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D122" t="s">
         <v>169</v>
       </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
         <v>170</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D123" t="s">
         <v>171</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E123" t="s">
         <v>134</v>
       </c>
-      <c r="F79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
         <v>172</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D124" t="s">
         <v>173</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E124" t="s">
         <v>170</v>
       </c>
-      <c r="F80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="F124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
         <v>174</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D125" t="s">
         <v>175</v>
       </c>
-      <c r="E81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="E125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
         <v>176</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D126" t="s">
         <v>177</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E126" t="s">
         <v>134</v>
       </c>
-      <c r="F82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
         <v>178</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D127" t="s">
         <v>179</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E127" t="s">
         <v>170</v>
       </c>
-      <c r="F83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
         <v>180</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D128" t="s">
         <v>181</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E128" t="s">
         <v>170</v>
       </c>
-      <c r="F84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" t="s">
-        <v>183</v>
-      </c>
-      <c r="E85" t="s">
-        <v>170</v>
-      </c>
-      <c r="F85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" t="s">
-        <v>185</v>
-      </c>
-      <c r="E86" t="s">
-        <v>39</v>
-      </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" t="s">
-        <v>186</v>
-      </c>
-      <c r="D87" t="s">
-        <v>187</v>
-      </c>
-      <c r="E87" t="s">
-        <v>315</v>
-      </c>
-      <c r="F87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s">
-        <v>188</v>
-      </c>
-      <c r="D88" t="s">
-        <v>189</v>
-      </c>
-      <c r="E88" t="s">
-        <v>316</v>
-      </c>
-      <c r="F88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" t="s">
-        <v>190</v>
-      </c>
-      <c r="D89" t="s">
-        <v>191</v>
-      </c>
-      <c r="E89" t="s">
-        <v>170</v>
-      </c>
-      <c r="F89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>192</v>
-      </c>
-      <c r="D90" t="s">
-        <v>193</v>
-      </c>
-      <c r="E90" t="s">
-        <v>134</v>
-      </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
-        <v>194</v>
-      </c>
-      <c r="D91" t="s">
-        <v>195</v>
-      </c>
-      <c r="E91" t="s">
-        <v>134</v>
-      </c>
-      <c r="F91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>196</v>
-      </c>
-      <c r="D92" t="s">
-        <v>197</v>
-      </c>
-      <c r="E92" t="s">
-        <v>134</v>
-      </c>
-      <c r="F92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" t="s">
-        <v>199</v>
-      </c>
-      <c r="E93" t="s">
-        <v>170</v>
-      </c>
-      <c r="F93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>200</v>
-      </c>
-      <c r="D94" t="s">
-        <v>201</v>
-      </c>
-      <c r="E94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>202</v>
-      </c>
-      <c r="D95" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" t="s">
-        <v>205</v>
-      </c>
-      <c r="E96" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" t="s">
-        <v>206</v>
-      </c>
-      <c r="D97" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" t="s">
-        <v>209</v>
-      </c>
-      <c r="E98" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>210</v>
-      </c>
-      <c r="D99" t="s">
-        <v>211</v>
-      </c>
-      <c r="E99" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" t="s">
-        <v>212</v>
-      </c>
-      <c r="D100" t="s">
-        <v>213</v>
-      </c>
-      <c r="E100" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" t="s">
-        <v>215</v>
-      </c>
-      <c r="E101" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102" t="s">
-        <v>217</v>
-      </c>
-      <c r="E102" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" t="s">
-        <v>218</v>
-      </c>
-      <c r="D103" t="s">
-        <v>219</v>
-      </c>
-      <c r="E103" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" t="s">
-        <v>221</v>
-      </c>
-      <c r="D104" t="s">
-        <v>222</v>
-      </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" t="s">
-        <v>223</v>
-      </c>
-      <c r="C105" t="s">
-        <v>224</v>
-      </c>
-      <c r="D105" t="s">
-        <v>225</v>
-      </c>
-      <c r="E105" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" t="s">
-        <v>227</v>
-      </c>
-      <c r="E106" t="s">
-        <v>224</v>
-      </c>
-      <c r="F106" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" t="s">
-        <v>228</v>
-      </c>
-      <c r="E107" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" t="s">
-        <v>223</v>
-      </c>
-      <c r="C108" t="s">
-        <v>229</v>
-      </c>
-      <c r="D108" t="s">
-        <v>230</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" t="s">
-        <v>223</v>
-      </c>
-      <c r="C109" t="s">
-        <v>231</v>
-      </c>
-      <c r="D109" t="s">
-        <v>232</v>
-      </c>
-      <c r="E109" t="s">
-        <v>233</v>
-      </c>
-      <c r="F109" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110" t="s">
-        <v>234</v>
-      </c>
-      <c r="D110" t="s">
-        <v>235</v>
-      </c>
-      <c r="E110" t="s">
-        <v>233</v>
-      </c>
-      <c r="F110" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" t="s">
-        <v>223</v>
-      </c>
-      <c r="C111" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" t="s">
-        <v>237</v>
-      </c>
-      <c r="E111" t="s">
-        <v>238</v>
-      </c>
-      <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>223</v>
-      </c>
-      <c r="C112" t="s">
-        <v>239</v>
-      </c>
-      <c r="D112" t="s">
-        <v>240</v>
-      </c>
-      <c r="E112" t="s">
-        <v>233</v>
-      </c>
-      <c r="F112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" t="s">
-        <v>223</v>
-      </c>
-      <c r="C113" t="s">
-        <v>241</v>
-      </c>
-      <c r="D113" t="s">
-        <v>242</v>
-      </c>
-      <c r="E113" t="s">
-        <v>243</v>
-      </c>
-      <c r="F113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" t="s">
-        <v>223</v>
-      </c>
-      <c r="C114" t="s">
-        <v>244</v>
-      </c>
-      <c r="D114" t="s">
-        <v>245</v>
-      </c>
-      <c r="E114" t="s">
-        <v>233</v>
-      </c>
-      <c r="F114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" t="s">
-        <v>223</v>
-      </c>
-      <c r="C115" t="s">
-        <v>246</v>
-      </c>
-      <c r="D115" t="s">
-        <v>247</v>
-      </c>
-      <c r="E115" t="s">
-        <v>243</v>
-      </c>
-      <c r="F115" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" t="s">
-        <v>223</v>
-      </c>
-      <c r="C116" t="s">
-        <v>248</v>
-      </c>
-      <c r="D116" t="s">
-        <v>249</v>
-      </c>
-      <c r="E116" t="s">
-        <v>317</v>
-      </c>
-      <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" t="s">
-        <v>223</v>
-      </c>
-      <c r="C117" t="s">
-        <v>250</v>
-      </c>
-      <c r="D117" t="s">
-        <v>251</v>
-      </c>
-      <c r="E117" t="s">
-        <v>317</v>
-      </c>
-      <c r="F117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" t="s">
-        <v>252</v>
-      </c>
-      <c r="C118" t="s">
-        <v>253</v>
-      </c>
-      <c r="D118" t="s">
-        <v>254</v>
-      </c>
-      <c r="E118" t="s">
-        <v>318</v>
-      </c>
-      <c r="F118" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" t="s">
-        <v>252</v>
-      </c>
-      <c r="C119" t="s">
-        <v>255</v>
-      </c>
-      <c r="D119" t="s">
-        <v>256</v>
-      </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" t="s">
-        <v>252</v>
-      </c>
-      <c r="C120" t="s">
-        <v>257</v>
-      </c>
-      <c r="D120" t="s">
-        <v>258</v>
-      </c>
-      <c r="E120" t="s">
-        <v>319</v>
-      </c>
-      <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" t="s">
-        <v>252</v>
-      </c>
-      <c r="C121" t="s">
-        <v>259</v>
-      </c>
-      <c r="D121" t="s">
-        <v>260</v>
-      </c>
-      <c r="E121" t="s">
-        <v>318</v>
-      </c>
-      <c r="F121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" t="s">
-        <v>252</v>
-      </c>
-      <c r="C122" t="s">
-        <v>261</v>
-      </c>
-      <c r="D122" t="s">
-        <v>262</v>
-      </c>
-      <c r="E122" t="s">
-        <v>320</v>
-      </c>
-      <c r="F122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" t="s">
-        <v>252</v>
-      </c>
-      <c r="C123" t="s">
-        <v>88</v>
-      </c>
-      <c r="D123" t="s">
-        <v>263</v>
-      </c>
-      <c r="E123" t="s">
-        <v>321</v>
-      </c>
-      <c r="F123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" t="s">
-        <v>264</v>
-      </c>
-      <c r="C124" t="s">
-        <v>102</v>
-      </c>
-      <c r="D124" t="s">
-        <v>265</v>
-      </c>
-      <c r="E124" t="s">
-        <v>322</v>
-      </c>
-      <c r="F124" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" t="s">
-        <v>264</v>
-      </c>
-      <c r="C125" t="s">
-        <v>266</v>
-      </c>
-      <c r="D125" t="s">
-        <v>267</v>
-      </c>
-      <c r="E125" t="s">
-        <v>268</v>
-      </c>
-      <c r="F125" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" t="s">
-        <v>269</v>
-      </c>
-      <c r="C126" t="s">
-        <v>268</v>
-      </c>
-      <c r="D126" t="s">
-        <v>270</v>
-      </c>
-      <c r="E126" t="s">
-        <v>323</v>
-      </c>
-      <c r="F126" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" t="s">
-        <v>269</v>
-      </c>
-      <c r="C127" t="s">
-        <v>272</v>
-      </c>
-      <c r="D127" t="s">
-        <v>273</v>
-      </c>
-      <c r="E127" t="s">
-        <v>324</v>
-      </c>
-      <c r="F127" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" t="s">
-        <v>269</v>
-      </c>
-      <c r="C128" t="s">
-        <v>274</v>
-      </c>
-      <c r="D128" t="s">
-        <v>275</v>
-      </c>
-      <c r="E128" t="s">
-        <v>325</v>
-      </c>
       <c r="F128" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -4113,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="E129" t="s">
-        <v>325</v>
+        <v>170</v>
       </c>
       <c r="F129" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -4133,16 +4210,16 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="E130" t="s">
-        <v>326</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
@@ -4153,18 +4230,18 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
-      </c>
-      <c r="D131" t="s">
-        <v>281</v>
-      </c>
-      <c r="E131" t="s">
-        <v>327</v>
-      </c>
-      <c r="F131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4173,163 +4250,327 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
-      </c>
-      <c r="D132" t="s">
-        <v>282</v>
-      </c>
-      <c r="E132" t="s">
-        <v>328</v>
-      </c>
-      <c r="F132" t="s">
+        <v>188</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F132" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" t="s">
-        <v>329</v>
+      <c r="A133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>331</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>283</v>
+        <v>190</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" t="s">
-        <v>330</v>
+      <c r="A134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>333</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>283</v>
+        <v>192</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" t="s">
-        <v>330</v>
+      <c r="A135" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>335</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F135" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>330</v>
+      <c r="A136" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>337</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>12</v>
+        <v>196</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>330</v>
+      <c r="A137" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>338</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F137" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>330</v>
+      <c r="A138" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>339</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="F138" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>330</v>
+      <c r="A139" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>340</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="F139" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>208</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>210</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>212</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>214</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>218</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E147" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="30" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H134" xr:uid="{CCB45847-0D98-46DC-BBD0-085CFFF51969}"/>
+  <autoFilter ref="A1:H147" xr:uid="{CCB45847-0D98-46DC-BBD0-085CFFF51969}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H147">
+    <sortCondition ref="B2:B147"/>
+    <sortCondition ref="C2:C147"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
